--- a/biology/Zoologie/Alfredus/Alfredus.xlsx
+++ b/biology/Zoologie/Alfredus/Alfredus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfredus est un genre de la famille des Edwardsiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (12 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (12 janvier 2023) :
 Alfredus lucifugus (Fischer, 1888)</t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Alfredus Schmidt, 1979[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Alfredus Schmidt, 1979.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) H. Schmidt, 1979, « Beiträge zur Differentialdiagnose, Morphologie und Evolution der Edwardsiidae (Actiniaria, Anthozoa) I. Die Gattung Alfredus nov. gen. mit der Typusart A. lucifugus (Fischer, 1888) », Zeitschrift für Zoologische Systematik und Evolutionsforschung, vol. 17, n. 3, p. 211-220</t>
         </is>
